--- a/funds_and_traders.xlsx
+++ b/funds_and_traders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35AFCB2-DCF0-411E-84BB-0D90B277BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A0178-0003-45BE-ACC5-CFBE4806F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="0" windowWidth="30150" windowHeight="20850" xr2:uid="{8FE4F963-5C8C-42BB-8305-000DF7F046F7}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18420" windowHeight="16410" xr2:uid="{8FE4F963-5C8C-42BB-8305-000DF7F046F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Traders" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Traders</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Robert Satrone</t>
+  </si>
+  <si>
+    <t>john griffen</t>
+  </si>
+  <si>
+    <t>Traders / Investors</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC80D8-DDEE-4499-8E18-F2ABC96FCD81}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,40 +460,45 @@
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/funds_and_traders.xlsx
+++ b/funds_and_traders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2A0178-0003-45BE-ACC5-CFBE4806F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913922B-37F7-477C-89B7-9DA65AF81081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18420" windowHeight="16410" xr2:uid="{8FE4F963-5C8C-42BB-8305-000DF7F046F7}"/>
+    <workbookView xWindow="735" yWindow="4470" windowWidth="18420" windowHeight="16410" xr2:uid="{8FE4F963-5C8C-42BB-8305-000DF7F046F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Traders" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Firm?</t>
   </si>
   <si>
-    <t>Age?</t>
-  </si>
-  <si>
     <t>School?</t>
   </si>
   <si>
-    <t>Felipe Lafont</t>
-  </si>
-  <si>
     <t>Chase Coleman</t>
   </si>
   <si>
@@ -63,17 +57,164 @@
     <t>Robert Satrone</t>
   </si>
   <si>
-    <t>john griffen</t>
-  </si>
-  <si>
     <t>Traders / Investors</t>
+  </si>
+  <si>
+    <t>Ray Dallo</t>
+  </si>
+  <si>
+    <t>Sam Isreal haha</t>
+  </si>
+  <si>
+    <t>Jim Simons</t>
+  </si>
+  <si>
+    <t>Kenneth Griffen</t>
+  </si>
+  <si>
+    <t>Julian Robertson</t>
+  </si>
+  <si>
+    <t>Steve Cohen</t>
+  </si>
+  <si>
+    <t>David Teper</t>
+  </si>
+  <si>
+    <t>Peter Borish</t>
+  </si>
+  <si>
+    <t>Stanley Druckenmiller</t>
+  </si>
+  <si>
+    <t>Joel Greenblatt</t>
+  </si>
+  <si>
+    <t>Bill Ackman</t>
+  </si>
+  <si>
+    <t>Carl Icahn</t>
+  </si>
+  <si>
+    <t>Paul Tudor Jones</t>
+  </si>
+  <si>
+    <t>Michael Burry</t>
+  </si>
+  <si>
+    <t>Cathie Wood</t>
+  </si>
+  <si>
+    <t>Tiger Management</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Andreas Halvorsen</t>
+  </si>
+  <si>
+    <t>Viking Global Investors</t>
+  </si>
+  <si>
+    <t>Tiger Cub</t>
+  </si>
+  <si>
+    <t>John Griffin</t>
+  </si>
+  <si>
+    <t>Blue Ridge Capital</t>
+  </si>
+  <si>
+    <t>Lee Ainsile</t>
+  </si>
+  <si>
+    <t>Maverick Capital</t>
+  </si>
+  <si>
+    <t>Steve Mandel</t>
+  </si>
+  <si>
+    <t>Lone Pine Capital</t>
+  </si>
+  <si>
+    <t>Tiger Global Management</t>
+  </si>
+  <si>
+    <t>Phillppe Lafont</t>
+  </si>
+  <si>
+    <t>Coatue Managmenet</t>
+  </si>
+  <si>
+    <t>AUM</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>David Goel</t>
+  </si>
+  <si>
+    <t>Matrix Capital</t>
+  </si>
+  <si>
+    <t>Bill Hwang</t>
+  </si>
+  <si>
+    <t>Archegos Capital</t>
+  </si>
+  <si>
+    <t>William Bollinger</t>
+  </si>
+  <si>
+    <t>Egerton Capital</t>
+  </si>
+  <si>
+    <t>Deerfield Capital</t>
+  </si>
+  <si>
+    <t>Arnold Snider</t>
+  </si>
+  <si>
+    <t>Steve Shapiro</t>
+  </si>
+  <si>
+    <t>Dan Morehead</t>
+  </si>
+  <si>
+    <t>Robert Ellis</t>
+  </si>
+  <si>
+    <t>Feroz Dewan</t>
+  </si>
+  <si>
+    <t>Intrepid Capital Management</t>
+  </si>
+  <si>
+    <t>Pantera Capital</t>
+  </si>
+  <si>
+    <t>Ridgefield Capital</t>
+  </si>
+  <si>
+    <t>Arena Holdings</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>https://x.com/rich_toad/status/1828553544020173086</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +225,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -110,9 +259,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,59 +597,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC80D8-DDEE-4499-8E18-F2ABC96FCD81}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="B11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/funds_and_traders.xlsx
+++ b/funds_and_traders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913922B-37F7-477C-89B7-9DA65AF81081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528A8043-E816-440A-B83B-A355F94CB6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="4470" windowWidth="18420" windowHeight="16410" xr2:uid="{8FE4F963-5C8C-42BB-8305-000DF7F046F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,222 @@
   </si>
   <si>
     <t>https://x.com/rich_toad/status/1828553544020173086</t>
+  </si>
+  <si>
+    <t>Rick Gerson</t>
+  </si>
+  <si>
+    <t>Angela Aldrich</t>
+  </si>
+  <si>
+    <t>David Greenspan</t>
+  </si>
+  <si>
+    <t>Chris Hansen</t>
+  </si>
+  <si>
+    <t>Alpha Wave Capital</t>
+  </si>
+  <si>
+    <t>Bayberry Capital</t>
+  </si>
+  <si>
+    <t>Robert Mignone</t>
+  </si>
+  <si>
+    <t>Bridger Capital</t>
+  </si>
+  <si>
+    <t>Slate Path Capital</t>
+  </si>
+  <si>
+    <t>Valiant Capital</t>
+  </si>
+  <si>
+    <t>Tiger Grandcub</t>
+  </si>
+  <si>
+    <t>Scott Coulter</t>
+  </si>
+  <si>
+    <t>Paul Eisenstein</t>
+  </si>
+  <si>
+    <t>Brian Eizenstat</t>
+  </si>
+  <si>
+    <t>Mala Gaonkar</t>
+  </si>
+  <si>
+    <t>Eashwar Krishnan</t>
+  </si>
+  <si>
+    <t>Marco Tablada</t>
+  </si>
+  <si>
+    <t>Li Ran</t>
+  </si>
+  <si>
+    <t>Cowbird Capital</t>
+  </si>
+  <si>
+    <t>Vetamer Capital</t>
+  </si>
+  <si>
+    <t>Dilation Capital</t>
+  </si>
+  <si>
+    <t>Surgo Partners</t>
+  </si>
+  <si>
+    <t>Tybourne Capital</t>
+  </si>
+  <si>
+    <t>Alua Capital</t>
+  </si>
+  <si>
+    <t>Half Sky Capital</t>
+  </si>
+  <si>
+    <t>Lone Pine Alumns</t>
+  </si>
+  <si>
+    <t>Dan Sundheim</t>
+  </si>
+  <si>
+    <t>Top Purecll</t>
+  </si>
+  <si>
+    <t>D1 Capital Partners</t>
+  </si>
+  <si>
+    <t>Alua Capital Management</t>
+  </si>
+  <si>
+    <t>Mina Faltas</t>
+  </si>
+  <si>
+    <t>Steve Mykijewycz</t>
+  </si>
+  <si>
+    <t>Ben Jacobs</t>
+  </si>
+  <si>
+    <t>Grant Wonders</t>
+  </si>
+  <si>
+    <t>Brennan Diaz</t>
+  </si>
+  <si>
+    <t>Divya Nettimi</t>
+  </si>
+  <si>
+    <t>Washington Harbor Partners</t>
+  </si>
+  <si>
+    <t>Masterton Capital Management</t>
+  </si>
+  <si>
+    <t>Anomaly Capital Management</t>
+  </si>
+  <si>
+    <t>Voyager Global</t>
+  </si>
+  <si>
+    <t>Fernbridge Capital Management</t>
+  </si>
+  <si>
+    <t>Avala Global</t>
+  </si>
+  <si>
+    <t>Viking Global Investors Alumns</t>
+  </si>
+  <si>
+    <t>John Fichthorn</t>
+  </si>
+  <si>
+    <t>Prashanth Jayaram</t>
+  </si>
+  <si>
+    <t>Mike Pausic</t>
+  </si>
+  <si>
+    <t>Rishi Renjen</t>
+  </si>
+  <si>
+    <t>Andrew Warford</t>
+  </si>
+  <si>
+    <t>Dialectic Capital</t>
+  </si>
+  <si>
+    <t>Tri Locum Partners</t>
+  </si>
+  <si>
+    <t>Foxhaven Asset Management</t>
+  </si>
+  <si>
+    <t>ROAM Global Management</t>
+  </si>
+  <si>
+    <t>Estuary Capital</t>
+  </si>
+  <si>
+    <t>Maverick Alumns</t>
+  </si>
+  <si>
+    <t>Vadim Kovshov</t>
+  </si>
+  <si>
+    <t>Jasjit Rekhi</t>
+  </si>
+  <si>
+    <t>Trybe Capital Management</t>
+  </si>
+  <si>
+    <t>Monolit Capital Management</t>
+  </si>
+  <si>
+    <t>Discovery Alumns</t>
+  </si>
+  <si>
+    <t>Andrew Bellas</t>
+  </si>
+  <si>
+    <t>General Equity Holdings</t>
+  </si>
+  <si>
+    <t>Cat Rock Capital Management</t>
+  </si>
+  <si>
+    <t>Serenity Capital</t>
+  </si>
+  <si>
+    <t>Harbor Spring Capital</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>SRS Investment Management</t>
+  </si>
+  <si>
+    <t>Alex Captain</t>
+  </si>
+  <si>
+    <t>Wang Chen</t>
+  </si>
+  <si>
+    <t>Amit Doshi</t>
+  </si>
+  <si>
+    <t>Lee Fixel</t>
+  </si>
+  <si>
+    <t>Karthik Sarma</t>
+  </si>
+  <si>
+    <t>Tiger Global Alumns</t>
   </si>
 </sst>
 </file>
@@ -597,13 +813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC80D8-DDEE-4499-8E18-F2ABC96FCD81}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +1203,372 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
